--- a/data/trans_camb/P15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.03997560629564745</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04612396568949989</v>
+        <v>0.04612396568950128</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.705372088274292</v>
+        <v>-2.744437921496312</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.905711052257745</v>
+        <v>-4.882888305015791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.762533372341077</v>
+        <v>-3.96478154738875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1978016423430515</v>
+        <v>-0.007841864829928439</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.440183719830023</v>
+        <v>-0.5596514128581486</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9388479897729285</v>
+        <v>-0.9066907498615502</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7469244242389373</v>
+        <v>-0.6091512954292486</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.960847010880793</v>
+        <v>-1.979833926206061</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.803304796887027</v>
+        <v>-1.823916291661443</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.85471779706188</v>
+        <v>2.85864278609725</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3403849568001338</v>
+        <v>0.2645331099169218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.984237768003559</v>
+        <v>2.083246320597775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.311511807415</v>
+        <v>5.068172439717626</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.956259823125015</v>
+        <v>4.721549841799271</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.144550338801804</v>
+        <v>3.41181694471221</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.112414323059249</v>
+        <v>3.20963737676473</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.855149430820348</v>
+        <v>1.919922408570792</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.720825559096709</v>
+        <v>1.799264705830823</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.005931714131891193</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.006844028257529142</v>
+        <v>0.006844028257529348</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.284136409263664</v>
+        <v>-0.2775079076128929</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5079224249070424</v>
+        <v>-0.4946419931204341</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3984477150971354</v>
+        <v>-0.4012095323541963</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04112208703176335</v>
+        <v>-0.03097846056324931</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08791812733338872</v>
+        <v>-0.1109442662379143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1584541575433108</v>
+        <v>-0.1481467131298119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09256942889980184</v>
+        <v>-0.08923070086976739</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2573724342044344</v>
+        <v>-0.2536610939499409</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2276596228000222</v>
+        <v>-0.2374835819621887</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3854954256385134</v>
+        <v>0.4193282089560407</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04842349045048738</v>
+        <v>0.05713402346197972</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3031285908139872</v>
+        <v>0.3538588392612513</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.332776671030963</v>
+        <v>1.230975454216043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.269598829170807</v>
+        <v>1.132977749254819</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8041746373980545</v>
+        <v>0.8615143835073866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5323832910142102</v>
+        <v>0.5424205767578495</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3191571880274096</v>
+        <v>0.3336818103602844</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2974510732706661</v>
+        <v>0.3041342627576132</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.402197780065837</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1972000099278531</v>
+        <v>-0.1972000099278538</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1990621364290249</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.448746751190826</v>
+        <v>-3.299046326855358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.022545452196966</v>
+        <v>-5.420591992740159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.463770660714263</v>
+        <v>-4.158650743073062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.249106878316025</v>
+        <v>-1.112354486257058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.502004237844746</v>
+        <v>-3.466704041715575</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.525685195512638</v>
+        <v>-2.264592802552037</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.517802211477217</v>
+        <v>-1.533317695444287</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.58068196960673</v>
+        <v>-3.752160784193068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.632850066733472</v>
+        <v>-2.61947951246639</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.80037866253523</v>
+        <v>1.939536973376148</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1761584747511065</v>
+        <v>-0.5155413575909655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.07597349068102</v>
+        <v>1.102793439344362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.445361658552275</v>
+        <v>3.585049755957306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.650657539939028</v>
+        <v>0.6599475356209767</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.905644069676008</v>
+        <v>2.091119337486296</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.81063580209692</v>
+        <v>2.09391272606655</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.5734949176867528</v>
+        <v>-0.686984636391874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.867342567167841</v>
+        <v>0.918077447811518</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2313039226637099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03252974472937285</v>
+        <v>-0.03252974472937296</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02687866556650589</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3441909959457456</v>
+        <v>-0.3228126040070669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5103520821415002</v>
+        <v>-0.521726783416134</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4451040119735026</v>
+        <v>-0.4093785528667629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.174778139860248</v>
+        <v>-0.1773593491168703</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4955584782072953</v>
+        <v>-0.4808815356365661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3348164509957999</v>
+        <v>-0.3134279000969024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1857142132986616</v>
+        <v>-0.1809347160893577</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4344943977821792</v>
+        <v>-0.4438454017340212</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3200888287946591</v>
+        <v>-0.3185829384088828</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2499710441326965</v>
+        <v>0.2721959834248641</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01891504638444368</v>
+        <v>-0.04785459378759836</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1571012980546182</v>
+        <v>0.163421718700373</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.693436513112283</v>
+        <v>0.6713337925205322</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1377081700154625</v>
+        <v>0.13259244889478</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3962206050695407</v>
+        <v>0.4196143016681314</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2805773905861016</v>
+        <v>0.3221239981040752</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08072746676887196</v>
+        <v>-0.09693526446010418</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1391140780487405</v>
+        <v>0.1402716130313106</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.087599524933203</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9836808522606995</v>
+        <v>0.9836808522607001</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.601981266174485</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.798585397463744</v>
+        <v>-1.599284706715378</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.602785744733512</v>
+        <v>-4.593475002076118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.198113931021578</v>
+        <v>-5.126389230894094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2346187653694891</v>
+        <v>-0.3078583587653551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.266424495559682</v>
+        <v>-3.222644695831657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.238412803679781</v>
+        <v>-1.261428320935615</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2223032589978258</v>
+        <v>-0.4164044413792106</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.151102312578549</v>
+        <v>-3.19747405961084</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.474390593086846</v>
+        <v>-2.570043181048806</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.602579346266837</v>
+        <v>4.159120405051089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4947323157305515</v>
+        <v>0.5492274784247012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1508642628408217</v>
+        <v>-0.09781638098961956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.932535785493517</v>
+        <v>4.653174252731537</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.16605210375202</v>
+        <v>1.124383283921464</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.196772992983272</v>
+        <v>3.204527711322751</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.515690550208626</v>
+        <v>3.449355007167928</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3266156862567653</v>
+        <v>0.1306703438879846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7484519902230498</v>
+        <v>0.7842922885170361</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2129188784897314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1925747658523799</v>
+        <v>0.19257476585238</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2705876595872541</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2275098100746809</v>
+        <v>-0.213027304268803</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5646695058998257</v>
+        <v>-0.5544124425818386</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.620360814473876</v>
+        <v>-0.6078998293192054</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06473089689529328</v>
+        <v>-0.07478770904436044</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5241821824968493</v>
+        <v>-0.5178413683784345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1986805237859155</v>
+        <v>-0.2069566838325368</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0310647413188249</v>
+        <v>-0.06226637942032268</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4638794158052486</v>
+        <v>-0.4573643717265309</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3680601012116131</v>
+        <v>-0.3713809902127619</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6530688879564504</v>
+        <v>0.7764046802079837</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09840012918265113</v>
+        <v>0.1040698106659274</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02579525116091036</v>
+        <v>0.004886453183566469</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.226740820499252</v>
+        <v>1.13904902485521</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3499099565992195</v>
+        <v>0.3269278728256622</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7982454519536598</v>
+        <v>0.8351812129868192</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7097396229182348</v>
+        <v>0.6905350598041015</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07293777382996591</v>
+        <v>0.04113151405635897</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1343986539247011</v>
+        <v>0.1598562848497122</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6214257508468219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5458159066175993</v>
+        <v>0.5458159066175978</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.409373952022582</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.262093329957012</v>
+        <v>1.106458927058427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.628585063572408</v>
+        <v>-1.753504806892733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.491196526512872</v>
+        <v>-1.733326158603902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3288612875610377</v>
+        <v>0.4980776325920402</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.452239340262527</v>
+        <v>-0.5129914294136103</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1328208912758976</v>
+        <v>0.2434948849066243</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.498280430567984</v>
+        <v>1.383683482385152</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3236389081229672</v>
+        <v>-0.4151121077974483</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05179838167244337</v>
+        <v>-0.1127712482297709</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.795300484643377</v>
+        <v>6.086778412784117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.884705340920203</v>
+        <v>2.8048854793659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.887039854488064</v>
+        <v>2.614341680675594</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.405245674035585</v>
+        <v>4.627268193475299</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.696747458040151</v>
+        <v>3.623573303233493</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.764971212384337</v>
+        <v>3.963245582897018</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.524109762764126</v>
+        <v>4.568520767829026</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.789815551897491</v>
+        <v>2.626721598772634</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.865829943833724</v>
+        <v>2.682235226460048</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1058180008397919</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.09294295897156941</v>
+        <v>0.09294295897156918</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.539926541328261</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1794288054225085</v>
+        <v>0.148206808964655</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2303492631908544</v>
+        <v>-0.2415720164165094</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2314250951237935</v>
+        <v>-0.2530331018890947</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0559967163775432</v>
+        <v>0.08175121571680058</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1027686895947975</v>
+        <v>-0.100855785210503</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02315396329453639</v>
+        <v>0.03743461761263725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2515394561103969</v>
+        <v>0.2253623576257542</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05618634256043398</v>
+        <v>-0.07167769110756123</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0002744875910428506</v>
+        <v>-0.01854017807075891</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.219828875812771</v>
+        <v>1.298713219522615</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5907660605689913</v>
+        <v>0.5859743301341105</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5854565550483835</v>
+        <v>0.5192010555589049</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.253821966360147</v>
+        <v>1.268898810186594</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.992770135822938</v>
+        <v>1.076139805329209</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.083056410973743</v>
+        <v>1.129524976754193</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.001327418455251</v>
+        <v>1.010592989066498</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6218569807818705</v>
+        <v>0.5979703953623321</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6392443563156749</v>
+        <v>0.610694046999935</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.536720328601178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.161704455143672</v>
+        <v>-1.161704455143671</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.045499331046476</v>
@@ -1511,7 +1511,7 @@
         <v>0.2110543051594284</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.025606280732737</v>
+        <v>1.025606280732738</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.520841919521344</v>
@@ -1520,7 +1520,7 @@
         <v>-0.6508478693768811</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.05143282029817023</v>
+        <v>-0.05143282029817162</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3698227306760911</v>
+        <v>-0.3060146072809452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.762453625590953</v>
+        <v>-2.750856973222975</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.448193380970904</v>
+        <v>-2.47650110263861</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9067505875813546</v>
+        <v>0.910144190159095</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9140746163237965</v>
+        <v>-0.8869481266571416</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.003948199813368013</v>
+        <v>-0.01932737097672992</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7263625480531394</v>
+        <v>0.6116256003948229</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.452930314741698</v>
+        <v>-1.488518766843942</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8943166356123131</v>
+        <v>-0.8713981701680923</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.433078320979793</v>
+        <v>2.28886754470397</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3291758900479451</v>
+        <v>-0.36059276139172</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1462816326227103</v>
+        <v>0.1647742674671765</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.265399120190098</v>
+        <v>3.210899703866366</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.307878476560527</v>
+        <v>1.405277738053441</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.100288110229168</v>
+        <v>2.086962774589077</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.477733057242218</v>
+        <v>2.455926558752768</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2181704091557044</v>
+        <v>0.1922362704515032</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8067437980628348</v>
+        <v>0.77448228048832</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2071589272419076</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1566045845952788</v>
+        <v>-0.1566045845952787</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3941000144140157</v>
@@ -1616,7 +1616,7 @@
         <v>0.04066317863957342</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1976003824030059</v>
+        <v>0.1976003824030062</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2419022627564087</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1035226411710211</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.008180807913281952</v>
+        <v>-0.008180807913282172</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04359367238145958</v>
+        <v>-0.03871192750864966</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3378779483048957</v>
+        <v>-0.3419092757521676</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3028471386607134</v>
+        <v>-0.3029765470824664</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1513190900727625</v>
+        <v>0.1541780052959179</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1629660343857974</v>
+        <v>-0.1542498036187833</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.006510805905610513</v>
+        <v>-0.002010973127937562</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1033462787980132</v>
+        <v>0.09462382815820382</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2161079969521281</v>
+        <v>-0.2214652650333837</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1327985576265871</v>
+        <v>-0.1310462597567844</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3672104583249788</v>
+        <v>0.3403780996894968</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.04370450515936641</v>
+        <v>-0.04773096634819851</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02429011566334081</v>
+        <v>0.02822079972939374</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7013451654478698</v>
+        <v>0.6850285017382679</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2905886072128724</v>
+        <v>0.30093688469953</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4438301311362192</v>
+        <v>0.4551968594113229</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4295943386808087</v>
+        <v>0.4146062051078038</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04098704947174107</v>
+        <v>0.03446849010814568</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1380816793172147</v>
+        <v>0.132005575461982</v>
       </c>
     </row>
     <row r="34">
